--- a/teaching/traditional_assets/database/data/kuwait/kuwait_retail_automotive.xlsx
+++ b/teaching/traditional_assets/database/data/kuwait/kuwait_retail_automotive.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.08975</v>
+        <v>0.0345</v>
       </c>
       <c r="E2">
-        <v>0.002999999999999999</v>
+        <v>-0.11</v>
       </c>
       <c r="G2">
-        <v>0.01438094304479953</v>
+        <v>0.005485854858548586</v>
       </c>
       <c r="H2">
-        <v>0.01438094304479953</v>
+        <v>0.005485854858548586</v>
       </c>
       <c r="I2">
-        <v>-0.002354651827532658</v>
+        <v>-0.02600246002460025</v>
       </c>
       <c r="J2">
-        <v>-0.00233434070871501</v>
+        <v>-0.02575628319539214</v>
       </c>
       <c r="K2">
-        <v>24.4</v>
+        <v>13.3</v>
       </c>
       <c r="L2">
-        <v>0.02391922360552887</v>
+        <v>0.01635916359163592</v>
       </c>
       <c r="M2">
-        <v>16.12</v>
+        <v>0.202</v>
       </c>
       <c r="N2">
-        <v>0.04827792752321054</v>
+        <v>0.0006198220312979443</v>
       </c>
       <c r="O2">
-        <v>0.6606557377049179</v>
+        <v>0.01518796992481203</v>
       </c>
       <c r="P2">
-        <v>16.12</v>
+        <v>0.202</v>
       </c>
       <c r="Q2">
-        <v>0.04827792752321054</v>
+        <v>0.0006198220312979443</v>
       </c>
       <c r="R2">
-        <v>0.6606557377049179</v>
+        <v>0.01518796992481203</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>67.2</v>
+        <v>68</v>
       </c>
       <c r="V2">
-        <v>0.2012578616352201</v>
+        <v>0.2086529610309911</v>
       </c>
       <c r="W2">
-        <v>0.05452610707177973</v>
+        <v>0.03054104100308408</v>
       </c>
       <c r="X2">
-        <v>0.06703605772289958</v>
+        <v>0.06738611127674589</v>
       </c>
       <c r="Y2">
-        <v>-0.01250995065111986</v>
+        <v>-0.03684507027366181</v>
       </c>
       <c r="Z2">
-        <v>2.150590218976967</v>
+        <v>1.745009658725048</v>
       </c>
       <c r="AA2">
-        <v>-0.005640715850865763</v>
+        <v>-0.04791554433705814</v>
       </c>
       <c r="AB2">
-        <v>0.05744308323950781</v>
+        <v>0.05478006596602802</v>
       </c>
       <c r="AC2">
-        <v>-0.06308379909037358</v>
+        <v>-0.1026956103030862</v>
       </c>
       <c r="AD2">
-        <v>96.90000000000001</v>
+        <v>120</v>
       </c>
       <c r="AE2">
-        <v>9.734901646330322</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>106.6349016463303</v>
+        <v>120</v>
       </c>
       <c r="AG2">
-        <v>39.43490164633032</v>
+        <v>52</v>
       </c>
       <c r="AH2">
-        <v>0.2420577830447105</v>
+        <v>0.2691186364655753</v>
       </c>
       <c r="AI2">
-        <v>0.1964407618650237</v>
+        <v>0.2228412256267409</v>
       </c>
       <c r="AJ2">
-        <v>0.1056287571090474</v>
+        <v>0.1376025403545912</v>
       </c>
       <c r="AK2">
-        <v>0.08291002512606419</v>
+        <v>0.1105207226354942</v>
       </c>
       <c r="AL2">
-        <v>1.97</v>
+        <v>1.29</v>
       </c>
       <c r="AM2">
-        <v>-4.680000000000001</v>
+        <v>-4.33</v>
       </c>
       <c r="AN2">
-        <v>8.12238055322716</v>
+        <v>-85.1063829787234</v>
       </c>
       <c r="AO2">
-        <v>-2.180203045685279</v>
+        <v>-16.38759689922481</v>
       </c>
       <c r="AP2">
-        <v>3.305524027353757</v>
+        <v>-36.87943262411348</v>
       </c>
       <c r="AQ2">
-        <v>0.9177350427350426</v>
+        <v>4.882217090069284</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oula Fuel Marketing Company K.S.C.(Public) (KWSE:OULAFUEL)</t>
+          <t>Oula Fuel Marketing Company - KSCP (KWSE:OULAFUEL)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0916</v>
+        <v>0.0347</v>
       </c>
       <c r="E3">
-        <v>0.0409</v>
+        <v>-0.116</v>
       </c>
       <c r="G3">
-        <v>0.02245839181872869</v>
+        <v>0.002674846625766871</v>
       </c>
       <c r="H3">
-        <v>0.02245839181872869</v>
+        <v>0.002674846625766871</v>
       </c>
       <c r="I3">
-        <v>-0.0002707038299578905</v>
+        <v>-0.02292024539877301</v>
       </c>
       <c r="J3">
-        <v>-0.0002687407105803333</v>
+        <v>-0.02273403956466185</v>
       </c>
       <c r="K3">
-        <v>13</v>
+        <v>6.71</v>
       </c>
       <c r="L3">
-        <v>0.02606777621816724</v>
+        <v>0.01646625766871166</v>
       </c>
       <c r="M3">
-        <v>7.83</v>
+        <v>0.202</v>
       </c>
       <c r="N3">
-        <v>0.04644128113879004</v>
+        <v>0.001234718826405868</v>
       </c>
       <c r="O3">
-        <v>0.6023076923076923</v>
+        <v>0.0301043219076006</v>
       </c>
       <c r="P3">
-        <v>7.83</v>
+        <v>0.202</v>
       </c>
       <c r="Q3">
-        <v>0.04644128113879004</v>
+        <v>0.001234718826405868</v>
       </c>
       <c r="R3">
-        <v>0.6023076923076923</v>
+        <v>0.0301043219076006</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>45.1</v>
+        <v>45.4</v>
       </c>
       <c r="V3">
-        <v>0.267497034400949</v>
+        <v>0.2775061124694376</v>
       </c>
       <c r="W3">
-        <v>0.05993545412632549</v>
+        <v>0.02942982456140351</v>
       </c>
       <c r="X3">
-        <v>0.07529831740656459</v>
+        <v>0.0811903595298402</v>
       </c>
       <c r="Y3">
-        <v>-0.0153628632802391</v>
+        <v>-0.0517605349684367</v>
       </c>
       <c r="Z3">
-        <v>1.874107478391582</v>
+        <v>1.456397426733381</v>
       </c>
       <c r="AA3">
-        <v>-0.0005036489754468704</v>
+        <v>-0.0331097967212284</v>
       </c>
       <c r="AB3">
-        <v>0.05785192711315557</v>
+        <v>0.05597826890840447</v>
       </c>
       <c r="AC3">
-        <v>-0.05835557608860244</v>
+        <v>-0.08908806562963287</v>
       </c>
       <c r="AD3">
-        <v>96.90000000000001</v>
+        <v>120</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>96.90000000000001</v>
+        <v>120</v>
       </c>
       <c r="AG3">
-        <v>51.8</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.3649717514124294</v>
+        <v>0.4231311706629055</v>
       </c>
       <c r="AI3">
-        <v>0.2982456140350878</v>
+        <v>0.3642987249544627</v>
       </c>
       <c r="AJ3">
-        <v>0.23502722323049</v>
+        <v>0.3131821998320739</v>
       </c>
       <c r="AK3">
-        <v>0.185132237312366</v>
+        <v>0.2626760563380282</v>
       </c>
       <c r="AL3">
-        <v>1.97</v>
+        <v>1.29</v>
       </c>
       <c r="AM3">
-        <v>-0.3099999999999998</v>
+        <v>-0.54</v>
       </c>
       <c r="AN3">
-        <v>17.55434782608696</v>
+        <v>12000</v>
       </c>
       <c r="AO3">
-        <v>-0.0685279187817259</v>
+        <v>-7.240310077519379</v>
       </c>
       <c r="AP3">
-        <v>9.384057971014494</v>
+        <v>7459.999999999999</v>
       </c>
       <c r="AQ3">
-        <v>0.4354838709677422</v>
+        <v>17.29629629629629</v>
       </c>
     </row>
     <row r="4">
@@ -859,118 +859,115 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.08789999999999999</v>
+        <v>0.0343</v>
       </c>
       <c r="E4">
-        <v>-0.0349</v>
+        <v>-0.104</v>
       </c>
       <c r="G4">
-        <v>0.006655159186804757</v>
+        <v>0.008310727496917386</v>
       </c>
       <c r="H4">
-        <v>0.006655159186804757</v>
+        <v>0.008310727496917386</v>
       </c>
       <c r="I4">
-        <v>-0.004347871747729315</v>
+        <v>-0.02909987669543773</v>
       </c>
       <c r="J4">
-        <v>-0.004304393030252021</v>
+        <v>-0.02878528343386543</v>
       </c>
       <c r="K4">
-        <v>11.4</v>
+        <v>6.59</v>
       </c>
       <c r="L4">
-        <v>0.02186421173762946</v>
+        <v>0.01625154130702836</v>
       </c>
       <c r="M4">
-        <v>8.289999999999999</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.05015124016938898</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.7271929824561403</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>8.289999999999999</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.05015124016938898</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.7271929824561403</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>22.1</v>
+        <v>22.6</v>
       </c>
       <c r="V4">
-        <v>0.1336963097398669</v>
+        <v>0.1392483056069008</v>
       </c>
       <c r="W4">
-        <v>0.04911676001723395</v>
+        <v>0.03165225744476465</v>
       </c>
       <c r="X4">
-        <v>0.05877379803923458</v>
+        <v>0.05358186302365157</v>
       </c>
       <c r="Y4">
-        <v>-0.009657038022000623</v>
+        <v>-0.02192960557888692</v>
       </c>
       <c r="Z4">
-        <v>2.503903024314121</v>
+        <v>2.178936055883933</v>
       </c>
       <c r="AA4">
-        <v>-0.01077778272628466</v>
+        <v>-0.06272129195288788</v>
       </c>
       <c r="AB4">
-        <v>0.05703423936586004</v>
+        <v>0.05358186302365157</v>
       </c>
       <c r="AC4">
-        <v>-0.06781202209214471</v>
+        <v>-0.1163031549765395</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>9.734901646330322</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>9.734901646330322</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>-12.36509835366968</v>
+        <v>-22.6</v>
       </c>
       <c r="AH4">
-        <v>0.05561691728201921</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.04466885098619192</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.08085203717765219</v>
+        <v>-0.1617752326413744</v>
       </c>
       <c r="AK4">
-        <v>-0.0631404221092343</v>
+        <v>-0.1211796246648794</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>-4.37</v>
+        <v>-3.79</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AP4">
-        <v>-1.929032504472649</v>
+        <v>15.91549295774648</v>
       </c>
       <c r="AQ4">
-        <v>0.9519450800915332</v>
+        <v>3.113456464379948</v>
       </c>
     </row>
   </sheetData>
